--- a/data/ransomware_kb_master.xlsx
+++ b/data/ransomware_kb_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgreenwood/Documents/repos/dogesec/ransomware_kb/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0188F-870B-964C-8D9F-FD3E3FBDA1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7327AE-5DE6-4541-AC97-4D639AE5DB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intrusion Set - Groups" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="848">
   <si>
     <t>external_id</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Scattered Spider</t>
   </si>
   <si>
-    <t xml:space="preserve">Storm-0875,
-Roasted 0ktapus,
-Octo Tempest
-</t>
-  </si>
-  <si>
     <t>Scattered Spider, also known as UNC3944, is a sophisticated cybercriminal group that uses advanced social engineering tactics and spear-phishing campaigns to infiltrate organizations. While not exclusively a ransomware group, they have been associated with ransomware attacks, particularly through facilitating access for other ransomware operators. They target various sectors, including telecommunications and technology.</t>
   </si>
   <si>
@@ -95,10 +89,6 @@
     <t>Vice Society</t>
   </si>
   <si>
-    <t>DEV-0832,
-Vanilla Tempest</t>
-  </si>
-  <si>
     <t>Vice Society is a ransomware group known for targeting the education and healthcare sectors. They are recognized for using double extortion tactics, where they exfiltrate data before encrypting systems and threaten to leak the data if the ransom isn't paid. Vice Society is relatively new but has quickly become a significant threat due to its focus on vulnerable sectors.</t>
   </si>
   <si>
@@ -112,10 +102,6 @@
   </si>
   <si>
     <t>Akira</t>
-  </si>
-  <si>
-    <t>GOLD SAHARA,
-PUNK SPIDER</t>
   </si>
   <si>
     <t>Akira is a newer ransomware group that emerged in 2023, known for its targeted attacks on organizations and demanding high ransom payments. The group uses a Ransomware-as-a-Service (RaaS) model, allowing affiliates to use their ransomware to conduct attacks. Akira typically employs double extortion tactics, threatening to release stolen data if the ransom isn't paid.</t>
@@ -338,10 +324,6 @@
     <t>G1021</t>
   </si>
   <si>
-    <t xml:space="preserve">Cinnamon Tempest
-</t>
-  </si>
-  <si>
     <t>Cinnamon Tempest is a lesser-known cybercrime group believed to be involved in ransomware and other financially motivated cyber activities. The group's operations are not as well-documented as others, but they are known for targeting organizations with sophisticated malware and extortion tactics. They may also be associated with other more prominent ransomware groups.</t>
   </si>
   <si>
@@ -424,10 +406,6 @@
   </si>
   <si>
     <t>BlackCat</t>
-  </si>
-  <si>
-    <t>ALPHV,
-Noberus</t>
   </si>
   <si>
     <t>Also known as ALPHV, this ransomware is notable for being one of the first written in Rust, a programming language, making it harder to detect.</t>
@@ -568,10 +546,6 @@
     <t>RansomEXX</t>
   </si>
   <si>
-    <t>Ransom X,
-Defray777</t>
-  </si>
-  <si>
     <t>A ransomware group known for targeting large organizations, often using double extortion tactics to pressure victims into paying.</t>
   </si>
   <si>
@@ -581,11 +555,6 @@
     <t>REvil</t>
   </si>
   <si>
-    <t>Sodinokibi,
-Sodin,
-REvix</t>
-  </si>
-  <si>
     <t>Also known as Sodinokibi, a ransomware group responsible for numerous high-profile attacks, known for demanding high ransoms and leaking data of non-paying victims.</t>
   </si>
   <si>
@@ -625,10 +594,6 @@
     <t>BlackKingdom Ransomware</t>
   </si>
   <si>
-    <t>Black Kingdom,
-DEMON</t>
-  </si>
-  <si>
     <t>Ransomware that was used in attacks exploiting vulnerabilities in Microsoft Exchange servers, encrypting files and demanding Bitcoin for decryption.</t>
   </si>
   <si>
@@ -770,17 +735,6 @@
     <t>NotPetya</t>
   </si>
   <si>
-    <t>ExPetr,
-Pnyetya,
-Petna,
-EternalPetya,
-Nyetya,
-NonPetya,
-nPetya,
-Diskcoder.C,
-BadRabbit</t>
-  </si>
-  <si>
     <t>A wiper malware disguised as ransomware, causing widespread damage in 2017 by rendering systems inoperable even if the ransom was paid.</t>
   </si>
   <si>
@@ -793,13 +747,6 @@
     <t>BitPaymer</t>
   </si>
   <si>
-    <t xml:space="preserve">
-DoppelPaymer,
-IEncrypt,
-Pay OR Grief,
-FriedEx</t>
-  </si>
-  <si>
     <t>A ransomware that primarily targeT large organizations, using strong encryption and demanding high ransoms.</t>
   </si>
   <si>
@@ -860,10 +807,6 @@
     <t>Mailto</t>
   </si>
   <si>
-    <t>Koko Ransomware,
-NetWalker</t>
-  </si>
-  <si>
     <t>Also known as Netwalker, a ransomware variant that targeT corporate networks, encrypting files and demanding ransom in Bitcoin.</t>
   </si>
   <si>
@@ -906,12 +849,6 @@
     <t>MedusaLocker</t>
   </si>
   <si>
-    <t>AKO,
-AKO Ransomware,
-AKO Doxware,
-MedusaReborn</t>
-  </si>
-  <si>
     <t>A ransomware strain that targeT organizations, encrypting files and demanding payment for their recovery.</t>
   </si>
   <si>
@@ -939,11 +876,6 @@
     <t>Mount Locker</t>
   </si>
   <si>
-    <t>DagonLocker,
-MountLocker,
-QuantumLocker</t>
-  </si>
-  <si>
     <t>A ransomware that targeT corporate networks, encrypting files and stealing data to extort victims.</t>
   </si>
   <si>
@@ -1070,11 +1002,6 @@
     <t>TargetCompany</t>
   </si>
   <si>
-    <t>Fargo,
-Mallox,
-Tohnichi</t>
-  </si>
-  <si>
     <t>A ransomware strain that specifically targeT certain industries or companies, using strong encryption and demanding high ransoms.</t>
   </si>
   <si>
@@ -1117,10 +1044,6 @@
     <t>VegaLocker</t>
   </si>
   <si>
-    <t>Buran,
-Vega</t>
-  </si>
-  <si>
     <t>A ransomware strain that encrypT files and demands payment in cryptocurrency, often targeting small to medium-sized businesses.</t>
   </si>
   <si>
@@ -1130,12 +1053,6 @@
     <t>WannaCry</t>
   </si>
   <si>
-    <t>Wana Decrypt0r,
-WannaCryptor,
-WannaCrypt,
-Wcry</t>
-  </si>
-  <si>
     <t>One of the most infamous ransomware attacks, exploiting a vulnerability in Windows to spread rapidly and causing widespread damage globally in 2017.</t>
   </si>
   <si>
@@ -2204,9 +2121,6 @@
     <t>T0066</t>
   </si>
   <si>
-    <t>A PowerShell tool for network reconnaissance in Windows domains, used by attackers to gather information about domain trusts, permissions, and other network resources.</t>
-  </si>
-  <si>
     <t>T0067</t>
   </si>
   <si>
@@ -2571,9 +2485,6 @@
   </si>
   <si>
     <t>A C# tool used to extract credentials and cookies stored by the Google Chrome browser, often used in penetration testing and red teaming to gain unauthorized access to accounts.</t>
-  </si>
-  <si>
-    <t>T0107</t>
   </si>
   <si>
     <t>identity</t>
@@ -2615,6 +2526,87 @@
   <si>
     <t>R0023
 R0036</t>
+  </si>
+  <si>
+    <t>Cinnamon Tempest</t>
+  </si>
+  <si>
+    <t>Sodinokibi
+Sodin
+Revix</t>
+  </si>
+  <si>
+    <t>Ransom X
+Defray777</t>
+  </si>
+  <si>
+    <t>ALPHV
+Noberus</t>
+  </si>
+  <si>
+    <t>Black Kingdom
+DEMON</t>
+  </si>
+  <si>
+    <t>ExPetr
+Pnyetya
+Petna
+EternalPetya
+Nyetya
+NonPetya
+nPetya
+Diskcoder.C
+BadRabbit</t>
+  </si>
+  <si>
+    <t>DoppelPaymer
+IEncrypt
+Pay OR Grief
+FriedEx</t>
+  </si>
+  <si>
+    <t>Koko Ransomware
+NetWalker</t>
+  </si>
+  <si>
+    <t>AKO
+AKO Ransomware
+AKO Doxware
+MedusaReborn</t>
+  </si>
+  <si>
+    <t>DagonLocker
+MountLocker
+QuantumLocker</t>
+  </si>
+  <si>
+    <t>Fargo
+Mallox
+Tohnichi</t>
+  </si>
+  <si>
+    <t>Buran
+Vega</t>
+  </si>
+  <si>
+    <t>Wana Decrypt0r
+WannaCryptor
+WannaCrypt
+Wcry</t>
+  </si>
+  <si>
+    <t>DEV-0832
+Vanilla Tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm-0875
+Roasted 0ktapus
+Octo Tempest
+</t>
+  </si>
+  <si>
+    <t>GOLD SAHARA
+PUNK SPIDER</t>
   </si>
   <si>
     <t>T0057
@@ -2627,15 +2619,14 @@
 T0022
 T0034
 T0035
-T0037
-T0107</t>
+T0037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2653,16 +2644,6 @@
       <sz val="12"/>
       <color rgb="FF1F2328"/>
       <name val="-apple-system"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0056B3"/>
-      <name val="Roboto-Regular"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF39434C"/>
-      <name val="Roboto-Light"/>
     </font>
     <font>
       <u/>
@@ -2698,17 +2679,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2717,6 +2692,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2939,455 +2917,455 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="7"/>
+    <col min="1" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="42">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="154">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="168">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="42">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="42">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="28">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="28">
-      <c r="A10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="28">
+      <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="28">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="F15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="28">
+      <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="28">
-      <c r="A21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="C22" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3401,9 +3379,9 @@
   </sheetPr>
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3428,38 +3406,38 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -3473,21 +3451,21 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -3501,18 +3479,18 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -3528,24 +3506,24 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -3559,24 +3537,24 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>834</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -3590,21 +3568,21 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -3618,24 +3596,24 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
@@ -3649,24 +3627,24 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F9" s="1" t="b">
         <v>0</v>
@@ -3680,24 +3658,24 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -3711,18 +3689,18 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1" t="b">
         <v>0</v>
@@ -3733,19 +3711,19 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" s="1" t="b">
         <v>0</v>
@@ -3759,13 +3737,13 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>1</v>
@@ -3779,21 +3757,21 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>1</v>
@@ -3809,18 +3787,18 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
@@ -3832,19 +3810,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+    <row r="16" spans="1:13" ht="28">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>833</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
@@ -3859,21 +3837,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:11" ht="42">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>832</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>1</v>
@@ -3890,13 +3868,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F18" s="1" t="b">
         <v>0</v>
@@ -3910,7 +3888,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -3925,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>0</v>
@@ -3936,16 +3914,16 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>1</v>
@@ -3956,14 +3934,14 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F21" s="1" t="b">
         <v>1</v>
@@ -3978,16 +3956,16 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>835</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F22" s="1" t="b">
         <v>0</v>
@@ -3998,16 +3976,16 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F23" s="1" t="b">
         <v>0</v>
@@ -4018,16 +3996,16 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>0</v>
@@ -4038,14 +4016,14 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F25" s="1" t="b">
         <v>0</v>
@@ -4056,13 +4034,13 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>0</v>
@@ -4073,14 +4051,14 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>0</v>
@@ -4091,14 +4069,14 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F28" s="1" t="b">
         <v>0</v>
@@ -4109,13 +4087,13 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F29" s="1" t="b">
         <v>0</v>
@@ -4126,19 +4104,19 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>1</v>
@@ -4150,21 +4128,21 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>0</v>
@@ -4179,16 +4157,16 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>0</v>
@@ -4199,14 +4177,14 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>0</v>
@@ -4217,16 +4195,16 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>1</v>
@@ -4235,21 +4213,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+    <row r="35" spans="1:11" ht="126">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>836</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>0</v>
@@ -4258,21 +4236,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+    <row r="36" spans="1:11" ht="56">
       <c r="A36" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>837</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>0</v>
@@ -4283,13 +4261,13 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F37" s="1" t="b">
         <v>0</v>
@@ -4300,17 +4278,17 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F38" s="1" t="b">
         <v>0</v>
@@ -4321,16 +4299,16 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F39" s="1" t="b">
         <v>0</v>
@@ -4345,14 +4323,14 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
@@ -4363,14 +4341,14 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>0</v>
@@ -4379,18 +4357,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+    <row r="42" spans="1:11" ht="28">
       <c r="A42" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>838</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F42" s="1" t="b">
         <v>0</v>
@@ -4405,17 +4383,17 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F43" s="1" t="b">
         <v>0</v>
@@ -4426,16 +4404,16 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F44" s="1" t="b">
         <v>0</v>
@@ -4446,16 +4424,16 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F45" s="1" t="b">
         <v>0</v>
@@ -4464,19 +4442,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+    <row r="46" spans="1:11" ht="56">
       <c r="A46" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>839</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F46" s="1" t="b">
         <v>0</v>
@@ -4488,24 +4466,24 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13">
       <c r="A47" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
@@ -4518,19 +4496,19 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="13">
+    <row r="48" spans="1:11" ht="42">
       <c r="A48" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>840</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>0</v>
@@ -4545,13 +4523,13 @@
     </row>
     <row r="49" spans="1:11" ht="13">
       <c r="A49" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>0</v>
@@ -4566,14 +4544,14 @@
     </row>
     <row r="50" spans="1:11" ht="13">
       <c r="A50" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F50" s="1" t="b">
         <v>0</v>
@@ -4585,22 +4563,22 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13">
       <c r="A51" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>0</v>
@@ -4612,21 +4590,21 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13">
       <c r="A52" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>0</v>
@@ -4637,14 +4615,14 @@
     </row>
     <row r="53" spans="1:11" ht="13">
       <c r="A53" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
@@ -4655,16 +4633,16 @@
     </row>
     <row r="54" spans="1:11" ht="13">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
@@ -4679,19 +4657,19 @@
     </row>
     <row r="55" spans="1:11" ht="13">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>0</v>
@@ -4702,14 +4680,14 @@
     </row>
     <row r="56" spans="1:11" ht="13">
       <c r="A56" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>0</v>
@@ -4721,18 +4699,18 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13">
       <c r="A57" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>0</v>
@@ -4743,13 +4721,13 @@
     </row>
     <row r="58" spans="1:11" ht="13">
       <c r="A58" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>0</v>
@@ -4760,14 +4738,14 @@
     </row>
     <row r="59" spans="1:11" ht="13">
       <c r="A59" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>0</v>
@@ -4776,19 +4754,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13">
+    <row r="60" spans="1:11" ht="42">
       <c r="A60" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>337</v>
+        <v>323</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>841</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>0</v>
@@ -4803,17 +4781,17 @@
     </row>
     <row r="61" spans="1:11" ht="13">
       <c r="A61" s="1" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>0</v>
@@ -4824,16 +4802,16 @@
     </row>
     <row r="62" spans="1:11" ht="13">
       <c r="A62" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>0</v>
@@ -4844,14 +4822,14 @@
     </row>
     <row r="63" spans="1:11" ht="13">
       <c r="A63" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F63" s="1" t="b">
         <v>0</v>
@@ -4864,19 +4842,19 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="13">
+    <row r="64" spans="1:11" ht="28">
       <c r="A64" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>842</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>0</v>
@@ -4885,21 +4863,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="13">
+    <row r="65" spans="1:11" ht="56">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>843</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F65" s="1" t="b">
         <v>0</v>
@@ -4910,13 +4888,13 @@
     </row>
     <row r="66" spans="1:11" ht="13">
       <c r="A66" s="1" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="F66" s="1" t="b">
         <v>0</v>
@@ -4927,14 +4905,14 @@
     </row>
     <row r="67" spans="1:11" ht="13">
       <c r="A67" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F67" s="1" t="b">
         <v>0</v>
@@ -4945,14 +4923,14 @@
     </row>
     <row r="68" spans="1:11" ht="13">
       <c r="A68" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>1</v>
@@ -4964,19 +4942,19 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13">
       <c r="A69" s="1" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F69" s="1" t="b">
         <v>0</v>
@@ -4987,14 +4965,14 @@
     </row>
     <row r="70" spans="1:11" ht="13">
       <c r="A70" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F70" s="1" t="b">
         <v>0</v>
@@ -5008,13 +4986,13 @@
     </row>
     <row r="71" spans="1:11" ht="13">
       <c r="A71" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F71" s="1" t="b">
         <v>0</v>
@@ -5022,13 +5000,13 @@
     </row>
     <row r="72" spans="1:11" ht="13">
       <c r="A72" s="1" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F72" s="1" t="b">
         <v>0</v>
@@ -5036,13 +5014,13 @@
     </row>
     <row r="73" spans="1:11" ht="13">
       <c r="A73" s="1" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F73" s="1" t="b">
         <v>0</v>
@@ -5050,13 +5028,13 @@
     </row>
     <row r="74" spans="1:11" ht="13">
       <c r="A74" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F74" s="1" t="b">
         <v>0</v>
@@ -5064,13 +5042,13 @@
     </row>
     <row r="75" spans="1:11" ht="13">
       <c r="A75" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F75" s="1" t="b">
         <v>0</v>
@@ -5078,13 +5056,13 @@
     </row>
     <row r="76" spans="1:11" ht="13">
       <c r="A76" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F76" s="1" t="b">
         <v>0</v>
@@ -5092,13 +5070,13 @@
     </row>
     <row r="77" spans="1:11" ht="13">
       <c r="A77" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F77" s="1" t="b">
         <v>0</v>
@@ -5106,13 +5084,13 @@
     </row>
     <row r="78" spans="1:11" ht="13">
       <c r="A78" s="1" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
@@ -5120,13 +5098,13 @@
     </row>
     <row r="79" spans="1:11" ht="13">
       <c r="A79" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F79" s="1" t="b">
         <v>0</v>
@@ -5134,13 +5112,13 @@
     </row>
     <row r="80" spans="1:11" ht="13">
       <c r="A80" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F80" s="1" t="b">
         <v>1</v>
@@ -5148,13 +5126,13 @@
     </row>
     <row r="81" spans="1:6" ht="13">
       <c r="A81" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F81" s="1" t="b">
         <v>1</v>
@@ -5162,13 +5140,13 @@
     </row>
     <row r="82" spans="1:6" ht="13">
       <c r="A82" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
@@ -5176,13 +5154,13 @@
     </row>
     <row r="83" spans="1:6" ht="13">
       <c r="A83" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>0</v>
@@ -5190,13 +5168,13 @@
     </row>
     <row r="84" spans="1:6" ht="13">
       <c r="A84" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>0</v>
@@ -5204,13 +5182,13 @@
     </row>
     <row r="85" spans="1:6" ht="13">
       <c r="A85" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>0</v>
@@ -5218,13 +5196,13 @@
     </row>
     <row r="86" spans="1:6" ht="13">
       <c r="A86" s="1" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
@@ -5232,13 +5210,13 @@
     </row>
     <row r="87" spans="1:6" ht="13">
       <c r="A87" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
@@ -5246,13 +5224,13 @@
     </row>
     <row r="88" spans="1:6" ht="13">
       <c r="A88" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>0</v>
@@ -5260,13 +5238,13 @@
     </row>
     <row r="89" spans="1:6" ht="13">
       <c r="A89" s="1" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F89" s="1" t="b">
         <v>0</v>
@@ -5274,13 +5252,13 @@
     </row>
     <row r="90" spans="1:6" ht="13">
       <c r="A90" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>0</v>
@@ -5288,13 +5266,13 @@
     </row>
     <row r="91" spans="1:6" ht="13">
       <c r="A91" s="1" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>0</v>
@@ -5302,13 +5280,13 @@
     </row>
     <row r="92" spans="1:6" ht="13">
       <c r="A92" s="1" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="F92" s="1" t="b">
         <v>0</v>
@@ -5316,13 +5294,13 @@
     </row>
     <row r="93" spans="1:6" ht="13">
       <c r="A93" s="1" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>0</v>
@@ -5330,13 +5308,13 @@
     </row>
     <row r="94" spans="1:6" ht="13">
       <c r="A94" s="1" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F94" s="1" t="b">
         <v>0</v>
@@ -5344,13 +5322,13 @@
     </row>
     <row r="95" spans="1:6" ht="13">
       <c r="A95" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F95" s="1" t="b">
         <v>0</v>
@@ -5358,13 +5336,13 @@
     </row>
     <row r="96" spans="1:6" ht="13">
       <c r="A96" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F96" s="1" t="b">
         <v>0</v>
@@ -5372,30 +5350,30 @@
     </row>
     <row r="97" spans="1:11" ht="13">
       <c r="A97" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="F97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13">
       <c r="A98" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F98" s="1" t="b">
         <v>0</v>
@@ -5403,13 +5381,13 @@
     </row>
     <row r="99" spans="1:11" ht="13">
       <c r="A99" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F99" s="1" t="b">
         <v>0</v>
@@ -5417,13 +5395,13 @@
     </row>
     <row r="100" spans="1:11" ht="13">
       <c r="A100" s="1" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="F100" s="1" t="b">
         <v>0</v>
@@ -5431,13 +5409,13 @@
     </row>
     <row r="101" spans="1:11" ht="13">
       <c r="A101" s="1" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="F101" s="1" t="b">
         <v>0</v>
@@ -5445,13 +5423,13 @@
     </row>
     <row r="102" spans="1:11" ht="13">
       <c r="A102" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F102" s="1" t="b">
         <v>0</v>
@@ -5459,13 +5437,13 @@
     </row>
     <row r="103" spans="1:11" ht="13">
       <c r="A103" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F103" s="1" t="b">
         <v>0</v>
@@ -5473,13 +5451,13 @@
     </row>
     <row r="104" spans="1:11" ht="13">
       <c r="A104" s="1" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F104" s="1" t="b">
         <v>0</v>
@@ -5487,13 +5465,13 @@
     </row>
     <row r="105" spans="1:11" ht="13">
       <c r="A105" s="1" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="F105" s="1" t="b">
         <v>0</v>
@@ -5501,13 +5479,13 @@
     </row>
     <row r="106" spans="1:11" ht="13">
       <c r="A106" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F106" s="1" t="b">
         <v>0</v>
@@ -5515,13 +5493,13 @@
     </row>
     <row r="107" spans="1:11" ht="13">
       <c r="A107" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F107" s="1" t="b">
         <v>0</v>
@@ -5529,13 +5507,13 @@
     </row>
     <row r="108" spans="1:11" ht="13">
       <c r="A108" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F108" s="1" t="b">
         <v>0</v>
@@ -5543,13 +5521,13 @@
     </row>
     <row r="109" spans="1:11" ht="13">
       <c r="A109" s="1" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F109" s="1" t="b">
         <v>0</v>
@@ -5562,13 +5540,13 @@
     </row>
     <row r="110" spans="1:11" ht="13">
       <c r="A110" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F110" s="1" t="b">
         <v>0</v>
@@ -5576,13 +5554,13 @@
     </row>
     <row r="111" spans="1:11" ht="13">
       <c r="A111" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F111" s="1" t="b">
         <v>0</v>
@@ -5590,16 +5568,16 @@
     </row>
     <row r="112" spans="1:11" ht="13">
       <c r="A112" s="1" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F112" s="1" t="b">
         <v>0</v>
@@ -5607,16 +5585,16 @@
     </row>
     <row r="113" spans="1:6" ht="13">
       <c r="A113" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F113" s="1" t="b">
         <v>1</v>
@@ -5632,11 +5610,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5658,31 +5636,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -5707,15 +5685,15 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="1" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5740,15 +5718,15 @@
     </row>
     <row r="4" spans="1:25" ht="16">
       <c r="A4" s="1" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
@@ -5773,15 +5751,15 @@
     </row>
     <row r="5" spans="1:25" ht="16">
       <c r="A5" s="1" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5806,15 +5784,15 @@
     </row>
     <row r="6" spans="1:25" ht="16">
       <c r="A6" s="1" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -5838,15 +5816,15 @@
     </row>
     <row r="7" spans="1:25" ht="16">
       <c r="A7" s="1" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -5870,15 +5848,15 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="F8" s="1"/>
       <c r="O8" s="1"/>
@@ -5895,15 +5873,15 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="F9" s="1"/>
       <c r="O9" s="1"/>
@@ -5920,15 +5898,15 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="F10" s="1"/>
       <c r="O10" s="1"/>
@@ -5945,15 +5923,15 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5978,15 +5956,15 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6011,15 +5989,15 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6044,15 +6022,15 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6077,15 +6055,15 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6110,15 +6088,15 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6143,15 +6121,15 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6176,15 +6154,15 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6209,15 +6187,15 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6242,17 +6220,17 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6277,17 +6255,17 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -6312,15 +6290,15 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -6345,17 +6323,17 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -6380,17 +6358,17 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -6415,15 +6393,15 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6448,15 +6426,15 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6481,15 +6459,15 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -6514,17 +6492,17 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -6549,15 +6527,15 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -6582,17 +6560,17 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -6617,15 +6595,15 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6650,15 +6628,15 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6683,15 +6661,15 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6716,15 +6694,15 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -6749,15 +6727,15 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6782,15 +6760,15 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -6815,15 +6793,15 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -6848,17 +6826,17 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -6883,15 +6861,15 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6916,15 +6894,15 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6949,15 +6927,15 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6982,17 +6960,17 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7017,17 +6995,17 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -7052,15 +7030,15 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -7085,15 +7063,15 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -7118,15 +7096,15 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -7151,15 +7129,15 @@
     </row>
     <row r="47" spans="1:25" ht="13">
       <c r="A47" s="1" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -7184,15 +7162,15 @@
     </row>
     <row r="48" spans="1:25" ht="13">
       <c r="A48" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -7217,15 +7195,15 @@
     </row>
     <row r="49" spans="1:25" ht="13">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -7250,15 +7228,15 @@
     </row>
     <row r="50" spans="1:25" ht="13">
       <c r="A50" s="1" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -7283,15 +7261,15 @@
     </row>
     <row r="51" spans="1:25" ht="13">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -7316,15 +7294,15 @@
     </row>
     <row r="52" spans="1:25" ht="13">
       <c r="A52" s="1" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -7349,17 +7327,17 @@
     </row>
     <row r="53" spans="1:25" ht="13">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -7384,15 +7362,15 @@
     </row>
     <row r="54" spans="1:25" ht="13">
       <c r="A54" s="1" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -7417,15 +7395,15 @@
     </row>
     <row r="55" spans="1:25" ht="13">
       <c r="A55" s="1" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -7450,15 +7428,15 @@
     </row>
     <row r="56" spans="1:25" ht="13">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -7483,17 +7461,17 @@
     </row>
     <row r="57" spans="1:25" ht="13">
       <c r="A57" s="1" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -7518,15 +7496,15 @@
     </row>
     <row r="58" spans="1:25" ht="13">
       <c r="A58" s="1" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -7551,15 +7529,15 @@
     </row>
     <row r="59" spans="1:25" ht="13">
       <c r="A59" s="1" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -7584,15 +7562,15 @@
     </row>
     <row r="60" spans="1:25" ht="13">
       <c r="A60" s="1" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -7617,15 +7595,15 @@
     </row>
     <row r="61" spans="1:25" ht="13">
       <c r="A61" s="1" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -7650,17 +7628,17 @@
     </row>
     <row r="62" spans="1:25" ht="13">
       <c r="A62" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -7685,17 +7663,17 @@
     </row>
     <row r="63" spans="1:25" ht="13">
       <c r="A63" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -7720,17 +7698,17 @@
     </row>
     <row r="64" spans="1:25" ht="13">
       <c r="A64" s="1" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -7755,17 +7733,17 @@
     </row>
     <row r="65" spans="1:25" ht="13">
       <c r="A65" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -7790,15 +7768,15 @@
     </row>
     <row r="66" spans="1:25" ht="13">
       <c r="A66" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7823,16 +7801,12 @@
     </row>
     <row r="67" spans="1:25" ht="13">
       <c r="A67" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>593</v>
-      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -7856,15 +7830,15 @@
     </row>
     <row r="68" spans="1:25" ht="13">
       <c r="A68" s="1" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -7889,15 +7863,15 @@
     </row>
     <row r="69" spans="1:25" ht="13">
       <c r="A69" s="1" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -7922,15 +7896,15 @@
     </row>
     <row r="70" spans="1:25" ht="13">
       <c r="A70" s="1" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -7955,15 +7929,15 @@
     </row>
     <row r="71" spans="1:25" ht="13">
       <c r="A71" s="1" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -7988,15 +7962,15 @@
     </row>
     <row r="72" spans="1:25" ht="13">
       <c r="A72" s="1" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -8021,15 +7995,15 @@
     </row>
     <row r="73" spans="1:25" ht="13">
       <c r="A73" s="1" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -8054,15 +8028,15 @@
     </row>
     <row r="74" spans="1:25" ht="13">
       <c r="A74" s="1" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -8087,15 +8061,15 @@
     </row>
     <row r="75" spans="1:25" ht="13">
       <c r="A75" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -8120,15 +8094,15 @@
     </row>
     <row r="76" spans="1:25" ht="13">
       <c r="A76" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -8153,15 +8127,15 @@
     </row>
     <row r="77" spans="1:25" ht="13">
       <c r="A77" s="1" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -8186,15 +8160,15 @@
     </row>
     <row r="78" spans="1:25" ht="13">
       <c r="A78" s="1" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -8219,15 +8193,15 @@
     </row>
     <row r="79" spans="1:25" ht="13">
       <c r="A79" s="1" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8252,15 +8226,15 @@
     </row>
     <row r="80" spans="1:25" ht="13">
       <c r="A80" s="1" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -8285,15 +8259,15 @@
     </row>
     <row r="81" spans="1:25" ht="13">
       <c r="A81" s="1" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -8318,15 +8292,15 @@
     </row>
     <row r="82" spans="1:25" ht="13">
       <c r="A82" s="1" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -8351,15 +8325,15 @@
     </row>
     <row r="83" spans="1:25" ht="13">
       <c r="A83" s="1" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8384,15 +8358,15 @@
     </row>
     <row r="84" spans="1:25" ht="13">
       <c r="A84" s="1" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8417,17 +8391,17 @@
     </row>
     <row r="85" spans="1:25" ht="13">
       <c r="A85" s="1" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8452,15 +8426,15 @@
     </row>
     <row r="86" spans="1:25" ht="13">
       <c r="A86" s="1" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8485,17 +8459,17 @@
     </row>
     <row r="87" spans="1:25" ht="13">
       <c r="A87" s="1" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8520,15 +8494,15 @@
     </row>
     <row r="88" spans="1:25" ht="13">
       <c r="A88" s="1" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8553,15 +8527,15 @@
     </row>
     <row r="89" spans="1:25" ht="13">
       <c r="A89" s="1" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8586,15 +8560,15 @@
     </row>
     <row r="90" spans="1:25" ht="13">
       <c r="A90" s="1" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8619,15 +8593,15 @@
     </row>
     <row r="91" spans="1:25" ht="13">
       <c r="A91" s="1" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -8652,15 +8626,15 @@
     </row>
     <row r="92" spans="1:25" ht="13">
       <c r="A92" s="1" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8685,15 +8659,15 @@
     </row>
     <row r="93" spans="1:25" ht="13">
       <c r="A93" s="1" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -8718,15 +8692,15 @@
     </row>
     <row r="94" spans="1:25" ht="13">
       <c r="A94" s="1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -8751,15 +8725,15 @@
     </row>
     <row r="95" spans="1:25" ht="13">
       <c r="A95" s="1" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -8784,15 +8758,15 @@
     </row>
     <row r="96" spans="1:25" ht="13">
       <c r="A96" s="1" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -8817,15 +8791,15 @@
     </row>
     <row r="97" spans="1:25" ht="13">
       <c r="A97" s="1" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -8850,15 +8824,15 @@
     </row>
     <row r="98" spans="1:25" ht="13">
       <c r="A98" s="1" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -8883,15 +8857,15 @@
     </row>
     <row r="99" spans="1:25" ht="13">
       <c r="A99" s="1" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -8916,15 +8890,15 @@
     </row>
     <row r="100" spans="1:25" ht="13">
       <c r="A100" s="1" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -8949,15 +8923,15 @@
     </row>
     <row r="101" spans="1:25" ht="13">
       <c r="A101" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -8982,15 +8956,15 @@
     </row>
     <row r="102" spans="1:25" ht="13">
       <c r="A102" s="1" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -9015,15 +8989,15 @@
     </row>
     <row r="103" spans="1:25" ht="13">
       <c r="A103" s="1" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -9048,15 +9022,15 @@
     </row>
     <row r="104" spans="1:25" ht="13">
       <c r="A104" s="1" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -9081,15 +9055,15 @@
     </row>
     <row r="105" spans="1:25" ht="13">
       <c r="A105" s="1" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -9114,15 +9088,15 @@
     </row>
     <row r="106" spans="1:25" ht="13">
       <c r="A106" s="1" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -9147,15 +9121,15 @@
     </row>
     <row r="107" spans="1:25" ht="13">
       <c r="A107" s="1" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -9178,20 +9152,12 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="16">
-      <c r="A108" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>573</v>
-      </c>
+    <row r="108" spans="1:25" ht="13">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -33243,33 +33209,6 @@
       <c r="X998" s="1"/>
       <c r="Y998" s="1"/>
     </row>
-    <row r="999" spans="1:25" ht="13">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33291,37 +33230,37 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>844</v>
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>
